--- a/seating_arrangement.xlsx
+++ b/seating_arrangement.xlsx
@@ -459,7 +459,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Younes</t>
+          <t>Emmanuel</t>
         </is>
       </c>
     </row>
@@ -472,7 +472,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jordi</t>
+          <t>Nadiya</t>
         </is>
       </c>
     </row>
@@ -485,7 +485,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Yves</t>
+          <t>Moussa</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Caterina</t>
+          <t>Hajer</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Emmanuel</t>
+          <t>Charly</t>
         </is>
       </c>
     </row>
@@ -524,7 +524,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Aida</t>
+          <t>Floriane</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Fang</t>
+          <t>Dragos</t>
         </is>
       </c>
     </row>
@@ -550,7 +550,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Mengstu</t>
+          <t>Sofia</t>
         </is>
       </c>
     </row>
@@ -563,7 +563,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Floriane</t>
+          <t>Mengstu</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Yassine</t>
+          <t>Choti</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Evi</t>
+          <t>Preeti</t>
         </is>
       </c>
     </row>
@@ -602,7 +602,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Kenny</t>
+          <t>Klebert</t>
         </is>
       </c>
     </row>
@@ -615,7 +615,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Alberto</t>
+          <t>Kenny</t>
         </is>
       </c>
     </row>
@@ -628,7 +628,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Moussa</t>
+          <t>Hanieh</t>
         </is>
       </c>
     </row>
@@ -641,7 +641,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Hajer</t>
+          <t>Augustin</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Hanieh</t>
+          <t>Yassine</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Marc</t>
+          <t>Caterina</t>
         </is>
       </c>
     </row>
@@ -680,7 +680,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Klebert</t>
+          <t>Evi</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Sofia</t>
+          <t>Megan</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Choti</t>
+          <t>Fang</t>
         </is>
       </c>
     </row>
@@ -719,7 +719,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Megan</t>
+          <t>Aida</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Preeti</t>
+          <t>Marc2</t>
         </is>
       </c>
     </row>
@@ -745,7 +745,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Nadiya</t>
+          <t>Younes</t>
         </is>
       </c>
     </row>
@@ -758,7 +758,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Augustin</t>
+          <t>Jordi</t>
         </is>
       </c>
     </row>

--- a/seating_arrangement.xlsx
+++ b/seating_arrangement.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,7 +459,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Emmanuel</t>
+          <t>Younes</t>
         </is>
       </c>
     </row>
@@ -485,7 +485,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Moussa</t>
+          <t>Choti</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Hajer</t>
+          <t>Sofia</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Charly</t>
+          <t>Jordi</t>
         </is>
       </c>
     </row>
@@ -524,7 +524,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Floriane</t>
+          <t>Marc5</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Dragos</t>
+          <t>Hajer</t>
         </is>
       </c>
     </row>
@@ -550,7 +550,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Sofia</t>
+          <t>Charly</t>
         </is>
       </c>
     </row>
@@ -563,7 +563,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Mengstu</t>
+          <t>Megan</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Choti</t>
+          <t>Kenny</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Preeti</t>
+          <t>Dragos</t>
         </is>
       </c>
     </row>
@@ -602,7 +602,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Klebert</t>
+          <t>Fang</t>
         </is>
       </c>
     </row>
@@ -615,7 +615,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Kenny</t>
+          <t>Aida</t>
         </is>
       </c>
     </row>
@@ -628,7 +628,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Hanieh</t>
+          <t>Marc2</t>
         </is>
       </c>
     </row>
@@ -641,7 +641,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Augustin</t>
+          <t>Emmanuel</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Yassine</t>
+          <t>Augustin</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Caterina</t>
+          <t>Mengstu</t>
         </is>
       </c>
     </row>
@@ -680,7 +680,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Evi</t>
+          <t>Floriane</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Megan</t>
+          <t>Yassine</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Fang</t>
+          <t>Caterina</t>
         </is>
       </c>
     </row>
@@ -719,7 +719,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Aida</t>
+          <t>Marc</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Marc2</t>
+          <t>Marc3</t>
         </is>
       </c>
     </row>
@@ -745,7 +745,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Younes</t>
+          <t>Yves</t>
         </is>
       </c>
     </row>
@@ -758,7 +758,111 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Jordi</t>
+          <t>Klebert</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>7</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Hanieh</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>7</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Alberto</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>7</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Evi</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>7</v>
+      </c>
+      <c r="B29" t="n">
+        <v>4</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Moussa</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>8</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Marc4</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>8</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Preeti</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>8</v>
+      </c>
+      <c r="B32" t="n">
+        <v>3</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Empty</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>8</v>
+      </c>
+      <c r="B33" t="n">
+        <v>4</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Empty</t>
         </is>
       </c>
     </row>
